--- a/biology/Botanique/Raymond_Dumay/Raymond_Dumay.xlsx
+++ b/biology/Botanique/Raymond_Dumay/Raymond_Dumay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond Dumay, né à Replonges (Ain) le 6 novembre 1916 et mort à Ensuès-la-Redonne (Bouches-du-Rhône) le 28 juillet 1999[1], est un écrivain français de la Bresse mâconnaise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Dumay, né à Replonges (Ain) le 6 novembre 1916 et mort à Ensuès-la-Redonne (Bouches-du-Rhône) le 28 juillet 1999, est un écrivain français de la Bresse mâconnaise.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Berger dans la plaine de Saône, instituteur, professeur, journaliste, essayiste, romancier et rédacteur en chef de la Gazette des lettres.
 Premier écrivain à avoir écrit et fait éditer un guide du vin : Le Guide du vin (préface de Peter Townsend), Stock, 1967.
@@ -547,7 +561,9 @@
           <t>Citation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Le Christ a fait du vin avec de l’eau. Aucun dieu n’a tenté de faire une grande civilisation sans lier son destin à la haute gastronomie, laquelle culmine toujours dans ses vins. La vérité profonde d’un peuple on la trouve d’abord au fond de son verre. »
